--- a/data/trans_bre/P2A_fisi_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.509194497005203</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.403542067250219</v>
+        <v>2.403542067250217</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1678154287750017</v>
@@ -649,7 +649,7 @@
         <v>0.5360311517831247</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1130054779337437</v>
+        <v>0.1130054779337435</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7863377107585535</v>
+        <v>-0.9591548158664018</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.060278046831092</v>
+        <v>-3.286527790257442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.664557399919034</v>
+        <v>1.508118095088119</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.406878846106283</v>
+        <v>-1.458055982098603</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.08560889861531719</v>
+        <v>-0.1051248858803701</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2027562739961198</v>
+        <v>-0.2104765991117234</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1530054412466891</v>
+        <v>0.1438547658199697</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.05780524336204675</v>
+        <v>-0.06233369248400752</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.731462935961511</v>
+        <v>3.594932082767313</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.937843574129884</v>
+        <v>2.75847941802232</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.501810207300188</v>
+        <v>7.588137983965032</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.206956627613113</v>
+        <v>6.364833206392668</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5259880025632744</v>
+        <v>0.4890993958454109</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2706337248586185</v>
+        <v>0.2332201316961738</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.068897866748608</v>
+        <v>1.060765933895667</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.333088896470669</v>
+        <v>0.3367261335166226</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.3286654382171669</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.6227040306090934</v>
+        <v>-0.6227040306090947</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04504867905808828</v>
@@ -749,7 +749,7 @@
         <v>-0.06542478931393959</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.06577913643767908</v>
+        <v>-0.06577913643767923</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.185415776627329</v>
+        <v>-1.066424780823287</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2185358150594831</v>
+        <v>0.1224759478828542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.657661352528581</v>
+        <v>-1.722004293676264</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.29462191534566</v>
+        <v>-2.444951424735659</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.265766763900627</v>
+        <v>-0.2493440305846287</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03850071722854914</v>
+        <v>0.01950875130549671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2942866553146297</v>
+        <v>-0.2953181140940366</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2184187185114544</v>
+        <v>-0.2342920372514604</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.603348478028059</v>
+        <v>1.624783511080829</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.431360816626957</v>
+        <v>3.46614654023937</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.187573851186184</v>
+        <v>0.9727618142207101</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.111617318825909</v>
+        <v>1.128638392899864</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5232903277433115</v>
+        <v>0.518145095147149</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7591868434132789</v>
+        <v>0.734947914854148</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2821442935386584</v>
+        <v>0.2300754956238813</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1314836174243162</v>
+        <v>0.1338477936103701</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.3801522921588606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.493442589780691</v>
+        <v>-1.49344258978069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7398501698485791</v>
@@ -849,7 +849,7 @@
         <v>0.1058416651059085</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2148282845463124</v>
+        <v>-0.2148282845463123</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4675015054364507</v>
+        <v>-0.355098010703475</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.765871250700815</v>
+        <v>-1.830414444595222</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.074323130658431</v>
+        <v>-1.791240539257214</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.386344350911576</v>
+        <v>-4.524984599068042</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1995941235207206</v>
+        <v>-0.1308738069134108</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3522911572081804</v>
+        <v>-0.3536207908315797</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4365818917619763</v>
+        <v>-0.3954395493096264</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4888534499518916</v>
+        <v>-0.4946872300790029</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.535444971105473</v>
+        <v>4.606882895659862</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.943546271451859</v>
+        <v>3.843566803799946</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.818010175865991</v>
+        <v>2.809322226706654</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9217024437918152</v>
+        <v>0.8550073354399064</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.564085785309544</v>
+        <v>2.551325485706652</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.477147410154833</v>
+        <v>1.262937752059828</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.192218294161045</v>
+        <v>1.08067916537866</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1952244118292071</v>
+        <v>0.1627061890289596</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2452842964671383</v>
+        <v>0.1278361607659346</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5317347916999761</v>
+        <v>0.4503120213373036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.124383840715011</v>
+        <v>0.231034707376502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7840527989231791</v>
+        <v>-0.8649582779076481</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0459820838714304</v>
+        <v>0.006619817292416587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06294386806799103</v>
+        <v>0.05529661357414645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01677500524861114</v>
+        <v>0.03405416694107452</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06782288567357238</v>
+        <v>-0.07411029691618137</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.462723225475883</v>
+        <v>2.364663929729412</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.319931618678189</v>
+        <v>3.291056874818324</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.527635019249783</v>
+        <v>2.689012581653197</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.850187397633848</v>
+        <v>2.088525765355195</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5602440546645797</v>
+        <v>0.5251819407486161</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4859033356579263</v>
+        <v>0.5026143236723817</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.500185176475839</v>
+        <v>0.5416459269324222</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1850214708925012</v>
+        <v>0.2011003608506405</v>
       </c>
     </row>
     <row r="16">
